--- a/Results_excel/Graz_dataset/Graz_CrossVal_OnTrain_class.xlsx
+++ b/Results_excel/Graz_dataset/Graz_CrossVal_OnTrain_class.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="972" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="1218" uniqueCount="33">
   <si>
     <t>Method</t>
   </si>
@@ -160,7 +160,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -730,13 +730,89 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45412.47420942883</v>
+      </c>
+      <c r="C8" s="0">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="0">
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="0">
+        <v>91.666666666666671</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>73.611111111111114</v>
+      </c>
+      <c r="K8" s="0">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0">
+        <v>77.777777777777771</v>
+      </c>
+      <c r="M8" s="0">
+        <v>0</v>
+      </c>
+      <c r="N8" s="0">
+        <v>91.666666666666671</v>
+      </c>
+      <c r="O8" s="0">
+        <v>0</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="0">
+        <v>2.5</v>
+      </c>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0">
+        <v>2</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" s="0">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1306,13 +1382,89 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45412.474235035661</v>
+      </c>
+      <c r="C8" s="0">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="0">
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="0">
+        <v>93.055555555555557</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>70.833333333333329</v>
+      </c>
+      <c r="K8" s="0">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0">
+        <v>69.444444444444443</v>
+      </c>
+      <c r="M8" s="0">
+        <v>0</v>
+      </c>
+      <c r="N8" s="0">
+        <v>91.666666666666671</v>
+      </c>
+      <c r="O8" s="0">
+        <v>0</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="0">
+        <v>2.5</v>
+      </c>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0">
+        <v>2</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" s="0">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:Z8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1906,6 +2058,82 @@
         <v>10</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1">
+        <v>45412.474238313749</v>
+      </c>
+      <c r="C8" s="0">
+        <v>9</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="0">
+        <v>2.5</v>
+      </c>
+      <c r="H8" s="0">
+        <v>97.222222222222229</v>
+      </c>
+      <c r="I8" s="0">
+        <v>0</v>
+      </c>
+      <c r="J8" s="0">
+        <v>69.444444444444443</v>
+      </c>
+      <c r="K8" s="0">
+        <v>0</v>
+      </c>
+      <c r="L8" s="0">
+        <v>68.055555555555557</v>
+      </c>
+      <c r="M8" s="0">
+        <v>0</v>
+      </c>
+      <c r="N8" s="0">
+        <v>88.888888888888886</v>
+      </c>
+      <c r="O8" s="0">
+        <v>0</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="R8" s="0">
+        <v>2.5</v>
+      </c>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="0">
+        <v>2</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8" s="0">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>